--- a/Covid19.xlsx
+++ b/Covid19.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkali\Documents\GitHub\covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6827BD5-59FF-4BCC-840E-B98D9A68FC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A85E32C0-4523-4DEB-80BC-DC4203827B15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15924" yWindow="14592" windowWidth="17280" windowHeight="9204" firstSheet="1" activeTab="4" xr2:uid="{794A3CA2-2186-4545-9FF5-4E38E40414D8}"/>
+    <workbookView xWindow="-28920" yWindow="2565" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{794A3CA2-2186-4545-9FF5-4E38E40414D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
-    <sheet name="Deaths" sheetId="2" r:id="rId2"/>
-    <sheet name="Intensive Care" sheetId="3" r:id="rId3"/>
-    <sheet name="Hospitalisation" sheetId="4" r:id="rId4"/>
-    <sheet name="Tests" sheetId="5" r:id="rId5"/>
-    <sheet name="Recovered" sheetId="6" r:id="rId6"/>
+    <sheet name="confirmed" sheetId="1" r:id="rId1"/>
+    <sheet name="deaths" sheetId="2" r:id="rId2"/>
+    <sheet name="intensive care" sheetId="3" r:id="rId3"/>
+    <sheet name="hospitalisation" sheetId="4" r:id="rId4"/>
+    <sheet name="tests" sheetId="5" r:id="rId5"/>
+    <sheet name="recovered" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">tests!$A$1:$I$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
   <si>
     <t>Western Australia</t>
   </si>
@@ -64,277 +67,7 @@
     <t>South Australia</t>
   </si>
   <si>
-    <t>26-Jan</t>
-  </si>
-  <si>
-    <t>27-Jan</t>
-  </si>
-  <si>
-    <t>28-Jan</t>
-  </si>
-  <si>
-    <t>29-Jan</t>
-  </si>
-  <si>
-    <t>30-Jan</t>
-  </si>
-  <si>
-    <t>31-Jan</t>
-  </si>
-  <si>
-    <t>1-Feb</t>
-  </si>
-  <si>
-    <t>2-Feb</t>
-  </si>
-  <si>
-    <t>3-Feb</t>
-  </si>
-  <si>
-    <t>4-Feb</t>
-  </si>
-  <si>
-    <t>5-Feb</t>
-  </si>
-  <si>
-    <t>6-Feb</t>
-  </si>
-  <si>
-    <t>7-Feb</t>
-  </si>
-  <si>
-    <t>8-Feb</t>
-  </si>
-  <si>
-    <t>9-Feb</t>
-  </si>
-  <si>
-    <t>10-Feb</t>
-  </si>
-  <si>
-    <t>11-Feb</t>
-  </si>
-  <si>
-    <t>12-Feb</t>
-  </si>
-  <si>
-    <t>13-Feb</t>
-  </si>
-  <si>
-    <t>14-Feb</t>
-  </si>
-  <si>
-    <t>15-Feb</t>
-  </si>
-  <si>
-    <t>16-Feb</t>
-  </si>
-  <si>
-    <t>17-Feb</t>
-  </si>
-  <si>
-    <t>18-Feb</t>
-  </si>
-  <si>
-    <t>19-Feb</t>
-  </si>
-  <si>
-    <t>20-Feb</t>
-  </si>
-  <si>
-    <t>21-Feb</t>
-  </si>
-  <si>
-    <t>22-Feb</t>
-  </si>
-  <si>
-    <t>23-Feb</t>
-  </si>
-  <si>
-    <t>24-Feb</t>
-  </si>
-  <si>
-    <t>25-Feb</t>
-  </si>
-  <si>
-    <t>26-Feb</t>
-  </si>
-  <si>
-    <t>27-Feb</t>
-  </si>
-  <si>
-    <t>28-Feb</t>
-  </si>
-  <si>
-    <t>29-Feb</t>
-  </si>
-  <si>
-    <t>1-Mar</t>
-  </si>
-  <si>
-    <t>2-Mar</t>
-  </si>
-  <si>
-    <t>3-Mar</t>
-  </si>
-  <si>
-    <t>4-Mar</t>
-  </si>
-  <si>
-    <t>5-Mar</t>
-  </si>
-  <si>
-    <t>6-Mar</t>
-  </si>
-  <si>
-    <t>7-Mar</t>
-  </si>
-  <si>
-    <t>8-Mar</t>
-  </si>
-  <si>
-    <t>9-Mar</t>
-  </si>
-  <si>
-    <t>10-Mar</t>
-  </si>
-  <si>
-    <t>11-Mar</t>
-  </si>
-  <si>
-    <t>12-Mar</t>
-  </si>
-  <si>
-    <t>13-Mar</t>
-  </si>
-  <si>
-    <t>14-Mar</t>
-  </si>
-  <si>
-    <t>15-Mar</t>
-  </si>
-  <si>
-    <t>16-Mar</t>
-  </si>
-  <si>
-    <t>17-Mar</t>
-  </si>
-  <si>
-    <t>18-Mar</t>
-  </si>
-  <si>
-    <t>19-Mar</t>
-  </si>
-  <si>
-    <t>20-Mar</t>
-  </si>
-  <si>
-    <t>21-Mar</t>
-  </si>
-  <si>
-    <t>22-Mar</t>
-  </si>
-  <si>
-    <t>23-Mar</t>
-  </si>
-  <si>
-    <t>24-Mar</t>
-  </si>
-  <si>
-    <t>25-Mar</t>
-  </si>
-  <si>
-    <t>26-Mar</t>
-  </si>
-  <si>
-    <t>27-Mar</t>
-  </si>
-  <si>
-    <t>28-Mar</t>
-  </si>
-  <si>
-    <t>29-Mar</t>
-  </si>
-  <si>
-    <t>30-Mar</t>
-  </si>
-  <si>
-    <t>31-Mar</t>
-  </si>
-  <si>
-    <t>1-Apr</t>
-  </si>
-  <si>
-    <t>2-Apr</t>
-  </si>
-  <si>
-    <t>3-Apr</t>
-  </si>
-  <si>
-    <t>4-Apr</t>
-  </si>
-  <si>
-    <t>5-Apr</t>
-  </si>
-  <si>
-    <t>6-Apr</t>
-  </si>
-  <si>
-    <t>7-Apr</t>
-  </si>
-  <si>
-    <t>8-Apr</t>
-  </si>
-  <si>
-    <t>9-Apr</t>
-  </si>
-  <si>
-    <t>10-Apr</t>
-  </si>
-  <si>
-    <t>11-Apr</t>
-  </si>
-  <si>
-    <t>12-Apr</t>
-  </si>
-  <si>
-    <t>13-Apr</t>
-  </si>
-  <si>
-    <t>14-Apr</t>
-  </si>
-  <si>
-    <t>15-Apr</t>
-  </si>
-  <si>
-    <t>16-Apr</t>
-  </si>
-  <si>
-    <t>17-Apr</t>
-  </si>
-  <si>
-    <t>18-Apr</t>
-  </si>
-  <si>
-    <t>19-Apr</t>
-  </si>
-  <si>
-    <t>20-Apr</t>
-  </si>
-  <si>
-    <t>21-Apr</t>
-  </si>
-  <si>
-    <t>22-Apr</t>
-  </si>
-  <si>
-    <t>23-Apr</t>
-  </si>
-  <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Tests</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -432,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,33 +174,57 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -777,21 +534,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073BAB84-2344-428B-8858-E799C0E1666E}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
+      <c r="A1" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -819,13 +576,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="A2" s="20">
+        <v>43856</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
         <v>0</v>
       </c>
       <c r="D2">
@@ -837,53 +594,53 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
+      <c r="A3" s="21">
+        <v>43857</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>4</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="A4" s="20">
+        <v>43858</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4">
@@ -895,53 +652,53 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
+      <c r="A5" s="21">
+        <v>43859</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <v>4</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="A6" s="20">
+        <v>43860</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6">
@@ -953,53 +710,53 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
+      <c r="A7" s="21">
+        <v>43861</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
         <v>4</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>3</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="A8" s="20">
+        <v>43862</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
         <v>0</v>
       </c>
       <c r="D8">
@@ -1011,53 +768,53 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>4</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
+      <c r="A9" s="21">
+        <v>43863</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
         <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
-        <v>4</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="G9" s="5">
+        <v>4</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="A10" s="20">
+        <v>43864</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10">
@@ -1069,53 +826,53 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
+      <c r="A11" s="21">
+        <v>43865</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>4</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="6">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="G11" s="5">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="A12" s="20">
+        <v>43866</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
         <v>0</v>
       </c>
       <c r="D12">
@@ -1127,53 +884,53 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>4</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>19</v>
+      <c r="A13" s="21">
+        <v>43867</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>4</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
         <v>4</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="6">
-        <v>4</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="G13" s="5">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="A14" s="20">
+        <v>43868</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
         <v>0</v>
       </c>
       <c r="D14">
@@ -1185,53 +942,53 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>4</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>21</v>
+      <c r="A15" s="21">
+        <v>43869</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
         <v>5</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="6">
-        <v>4</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="G15" s="5">
+        <v>4</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="A16" s="20">
+        <v>43870</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
         <v>0</v>
       </c>
       <c r="D16">
@@ -1243,53 +1000,53 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>4</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>23</v>
+      <c r="A17" s="21">
+        <v>43871</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="6">
-        <v>4</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="G17" s="5">
+        <v>4</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="A18" s="20">
+        <v>43872</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
         <v>0</v>
       </c>
       <c r="D18">
@@ -1301,53 +1058,53 @@
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>4</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>25</v>
+      <c r="A19" s="21">
+        <v>43873</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
         <v>5</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>4</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="6">
-        <v>4</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="G19" s="5">
+        <v>4</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="A20" s="20">
+        <v>43874</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
         <v>0</v>
       </c>
       <c r="D20">
@@ -1359,53 +1116,53 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>4</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>27</v>
+      <c r="A21" s="21">
+        <v>43875</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="6">
-        <v>4</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="G21" s="5">
+        <v>4</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="A22" s="20">
+        <v>43876</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
         <v>0</v>
       </c>
       <c r="D22">
@@ -1417,53 +1174,53 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>4</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>29</v>
+      <c r="A23" s="21">
+        <v>43877</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
       </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
         <v>5</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>4</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="6">
-        <v>4</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="G23" s="5">
+        <v>4</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="A24" s="20">
+        <v>43878</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
         <v>0</v>
       </c>
       <c r="D24">
@@ -1475,53 +1232,53 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>4</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>31</v>
+      <c r="A25" s="21">
+        <v>43879</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
       </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
         <v>5</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>4</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="6">
-        <v>4</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="A26" s="20">
+        <v>43880</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
         <v>0</v>
       </c>
       <c r="D26">
@@ -1533,53 +1290,53 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>4</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
+      <c r="A27" s="21">
+        <v>43881</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
       </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
         <v>5</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>4</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="6">
-        <v>4</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="G27" s="5">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="A28" s="20">
+        <v>43882</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
         <v>0</v>
       </c>
       <c r="D28">
@@ -1591,53 +1348,53 @@
       <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>4</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>35</v>
+      <c r="A29" s="21">
+        <v>43883</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
       </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
         <v>5</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="6">
-        <v>4</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
+      <c r="G29" s="5">
+        <v>4</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="A30" s="20">
+        <v>43884</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
         <v>0</v>
       </c>
       <c r="D30">
@@ -1649,53 +1406,53 @@
       <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>4</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>37</v>
+      <c r="A31" s="21">
+        <v>43885</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
       </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>4</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="6">
-        <v>4</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
+      <c r="G31" s="5">
+        <v>4</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="A32" s="20">
+        <v>43886</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
         <v>0</v>
       </c>
       <c r="D32">
@@ -1707,53 +1464,53 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>4</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>39</v>
+      <c r="A33" s="21">
+        <v>43887</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
       </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
         <v>5</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>4</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="6">
-        <v>4</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
+      <c r="G33" s="5">
+        <v>4</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="5">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="A34" s="20">
+        <v>43888</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
         <v>0</v>
       </c>
       <c r="D34">
@@ -1765,53 +1522,53 @@
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>4</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>41</v>
+      <c r="A35" s="21">
+        <v>43889</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
       </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6">
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
         <v>5</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>4</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="6">
-        <v>4</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
+      <c r="G35" s="5">
+        <v>4</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="5">
-        <v>2</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="A36" s="20">
+        <v>43890</v>
+      </c>
+      <c r="B36" s="4">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5">
         <v>0</v>
       </c>
       <c r="D36">
@@ -1823,53 +1580,53 @@
       <c r="F36" s="3">
         <v>0</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>7</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>43</v>
+      <c r="A37" s="21">
+        <v>43891</v>
       </c>
       <c r="B37" s="3">
         <v>2</v>
       </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6">
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
         <v>9</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>6</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>7</v>
       </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="5">
-        <v>2</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="A38" s="20">
+        <v>43892</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5">
         <v>0</v>
       </c>
       <c r="D38">
@@ -1881,53 +1638,53 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>9</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>45</v>
+      <c r="A39" s="21">
+        <v>43893</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
       </c>
-      <c r="C39" s="6">
-        <v>0</v>
-      </c>
-      <c r="D39" s="6">
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
         <v>11</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>13</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>9</v>
       </c>
-      <c r="H39" s="6">
-        <v>1</v>
-      </c>
-      <c r="I39" s="6">
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="5">
-        <v>2</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="A40" s="20">
+        <v>43894</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5">
         <v>1</v>
       </c>
       <c r="D40">
@@ -1939,53 +1696,53 @@
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>10</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>47</v>
+      <c r="A41" s="21">
+        <v>43895</v>
       </c>
       <c r="B41" s="3">
         <v>3</v>
       </c>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6">
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
         <v>13</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>22</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>10</v>
       </c>
-      <c r="H41" s="6">
-        <v>1</v>
-      </c>
-      <c r="I41" s="6">
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="5">
+      <c r="A42" s="20">
+        <v>43896</v>
+      </c>
+      <c r="B42" s="4">
         <v>3</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>0</v>
       </c>
       <c r="D42">
@@ -1997,53 +1754,53 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>10</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>49</v>
+      <c r="A43" s="21">
+        <v>43897</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
       </c>
-      <c r="C43" s="6">
-        <v>0</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
         <v>13</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>28</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>11</v>
       </c>
-      <c r="H43" s="6">
-        <v>1</v>
-      </c>
-      <c r="I43" s="6">
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="A44" s="20">
+        <v>43898</v>
+      </c>
+      <c r="B44" s="4">
         <v>3</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>0</v>
       </c>
       <c r="D44">
@@ -2055,53 +1812,53 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>11</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>51</v>
+      <c r="A45" s="21">
+        <v>43899</v>
       </c>
       <c r="B45" s="3">
         <v>4</v>
       </c>
-      <c r="C45" s="6">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6">
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
         <v>15</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>48</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>15</v>
       </c>
-      <c r="H45" s="6">
-        <v>2</v>
-      </c>
-      <c r="I45" s="6">
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="5">
+      <c r="A46" s="20">
+        <v>43900</v>
+      </c>
+      <c r="B46" s="4">
         <v>6</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>1</v>
       </c>
       <c r="D46">
@@ -2113,53 +1870,53 @@
       <c r="F46" s="3">
         <v>0</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>18</v>
       </c>
       <c r="H46">
         <v>2</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>53</v>
+      <c r="A47" s="21">
+        <v>43901</v>
       </c>
       <c r="B47" s="3">
         <v>9</v>
       </c>
-      <c r="C47" s="6">
-        <v>1</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
         <v>20</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>65</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>21</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <v>3</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="5">
+      <c r="A48" s="20">
+        <v>43902</v>
+      </c>
+      <c r="B48" s="4">
         <v>9</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>1</v>
       </c>
       <c r="D48">
@@ -2171,53 +1928,53 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>21</v>
       </c>
       <c r="H48">
         <v>3</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>55</v>
+      <c r="A49" s="21">
+        <v>43903</v>
       </c>
       <c r="B49" s="3">
         <v>14</v>
       </c>
-      <c r="C49" s="6">
-        <v>1</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
         <v>35</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>92</v>
       </c>
       <c r="F49" s="3">
         <v>1</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>36</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>5</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="5">
+      <c r="A50" s="20">
+        <v>43904</v>
+      </c>
+      <c r="B50" s="4">
         <v>17</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>1</v>
       </c>
       <c r="D50">
@@ -2229,53 +1986,53 @@
       <c r="F50" s="3">
         <v>1</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>49</v>
       </c>
       <c r="H50">
         <v>5</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>57</v>
+      <c r="A51" s="21">
+        <v>43905</v>
       </c>
       <c r="B51" s="3">
         <v>17</v>
       </c>
-      <c r="C51" s="6">
-        <v>1</v>
-      </c>
-      <c r="D51" s="6">
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
         <v>61</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>134</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>57</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>6</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="5">
+      <c r="A52" s="20">
+        <v>43906</v>
+      </c>
+      <c r="B52" s="4">
         <v>28</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>1</v>
       </c>
       <c r="D52">
@@ -2287,53 +2044,53 @@
       <c r="F52" s="3">
         <v>2</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>71</v>
       </c>
       <c r="H52">
         <v>7</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>59</v>
+      <c r="A53" s="21">
+        <v>43907</v>
       </c>
       <c r="B53" s="3">
         <v>31</v>
       </c>
-      <c r="C53" s="6">
-        <v>1</v>
-      </c>
-      <c r="D53" s="6">
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5">
         <v>78</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>210</v>
       </c>
       <c r="F53" s="3">
         <v>2</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>94</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <v>7</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="5">
+      <c r="A54" s="20">
+        <v>43908</v>
+      </c>
+      <c r="B54" s="4">
         <v>35</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>1</v>
       </c>
       <c r="D54">
@@ -2345,53 +2102,53 @@
       <c r="F54" s="3">
         <v>3</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>121</v>
       </c>
       <c r="H54">
         <v>10</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="5">
         <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>61</v>
+      <c r="A55" s="21">
+        <v>43909</v>
       </c>
       <c r="B55" s="3">
         <v>52</v>
       </c>
-      <c r="C55" s="6">
-        <v>1</v>
-      </c>
-      <c r="D55" s="6">
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
         <v>144</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>307</v>
       </c>
       <c r="F55" s="3">
         <v>4</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <v>121</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <v>10</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="5">
         <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="5">
+      <c r="A56" s="20">
+        <v>43910</v>
+      </c>
+      <c r="B56" s="4">
         <v>64</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>3</v>
       </c>
       <c r="D56">
@@ -2403,53 +2160,53 @@
       <c r="F56" s="3">
         <v>6</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>121</v>
       </c>
       <c r="H56">
         <v>10</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>63</v>
+      <c r="A57" s="21">
+        <v>43911</v>
       </c>
       <c r="B57" s="3">
         <v>90</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>3</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>221</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>436</v>
       </c>
       <c r="F57" s="3">
         <v>9</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>229</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>16</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="5">
         <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="5">
+      <c r="A58" s="20">
+        <v>43912</v>
+      </c>
+      <c r="B58" s="4">
         <v>120</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>5</v>
       </c>
       <c r="D58">
@@ -2461,53 +2218,53 @@
       <c r="F58" s="3">
         <v>19</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>355</v>
       </c>
       <c r="H58">
         <v>22</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>65</v>
+      <c r="A59" s="21">
+        <v>43913</v>
       </c>
       <c r="B59" s="3">
         <v>140</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>5</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>319</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>669</v>
       </c>
       <c r="F59" s="3">
         <v>32</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <v>355</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="5">
         <v>28</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="5">
+      <c r="A60" s="20">
+        <v>43914</v>
+      </c>
+      <c r="B60" s="4">
         <v>175</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>6</v>
       </c>
       <c r="D60">
@@ -2519,53 +2276,53 @@
       <c r="F60" s="3">
         <v>39</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>411</v>
       </c>
       <c r="H60">
         <v>28</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="5">
         <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>67</v>
+      <c r="A61" s="21">
+        <v>43915</v>
       </c>
       <c r="B61" s="3">
         <v>175</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>6</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>443</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>1029</v>
       </c>
       <c r="F61" s="3">
         <v>39</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
         <v>466</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="5">
         <v>36</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="5">
         <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="5">
+      <c r="A62" s="20">
+        <v>43916</v>
+      </c>
+      <c r="B62" s="4">
         <v>231</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>12</v>
       </c>
       <c r="D62">
@@ -2577,53 +2334,53 @@
       <c r="F62" s="3">
         <v>53</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="5">
         <v>520</v>
       </c>
       <c r="H62">
         <v>47</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="5">
         <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>69</v>
+      <c r="A63" s="21">
+        <v>43917</v>
       </c>
       <c r="B63" s="3">
         <v>231</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>12</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>555</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>1405</v>
       </c>
       <c r="F63" s="3">
         <v>62</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
         <v>574</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="5">
         <v>47</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="5">
         <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="5">
+      <c r="A64" s="20">
+        <v>43918</v>
+      </c>
+      <c r="B64" s="4">
         <v>278</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>15</v>
       </c>
       <c r="D64">
@@ -2635,53 +2392,53 @@
       <c r="F64" s="3">
         <v>71</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="5">
         <v>685</v>
       </c>
       <c r="H64">
         <v>62</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="5">
         <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>71</v>
+      <c r="A65" s="21">
+        <v>43919</v>
       </c>
       <c r="B65" s="3">
         <v>311</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>15</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>656</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>1791</v>
       </c>
       <c r="F65" s="3">
         <v>77</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="5">
         <v>769</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="5">
         <v>66</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="5">
         <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="5">
+      <c r="A66" s="20">
+        <v>43920</v>
+      </c>
+      <c r="B66" s="4">
         <v>355</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>15</v>
       </c>
       <c r="D66">
@@ -2693,53 +2450,53 @@
       <c r="F66" s="3">
         <v>78</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="5">
         <v>821</v>
       </c>
       <c r="H66">
         <v>66</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="5">
         <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>73</v>
+      <c r="A67" s="21">
+        <v>43921</v>
       </c>
       <c r="B67" s="3">
         <v>364</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>17</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>743</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>2032</v>
       </c>
       <c r="F67" s="3">
         <v>80</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="5">
         <v>917</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="5">
         <v>69</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="5">
         <v>337</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="5">
+      <c r="A68" s="20">
+        <v>43922</v>
+      </c>
+      <c r="B68" s="4">
         <v>392</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>19</v>
       </c>
       <c r="D68">
@@ -2751,53 +2508,53 @@
       <c r="F68" s="3">
         <v>84</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="5">
         <v>968</v>
       </c>
       <c r="H68">
         <v>69</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="5">
         <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>75</v>
+      <c r="A69" s="21">
+        <v>43923</v>
       </c>
       <c r="B69" s="3">
         <v>400</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>21</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>835</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>2298</v>
       </c>
       <c r="F69" s="3">
         <v>87</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="5">
         <v>1036</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="5">
         <v>72</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="5">
         <v>367</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="5">
+      <c r="A70" s="20">
+        <v>43924</v>
+      </c>
+      <c r="B70" s="4">
         <v>400</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>22</v>
       </c>
       <c r="D70">
@@ -2809,53 +2566,53 @@
       <c r="F70" s="3">
         <v>91</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="5">
         <v>1085</v>
       </c>
       <c r="H70">
         <v>74</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70" s="5">
         <v>396</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>77</v>
+      <c r="A71" s="21">
+        <v>43925</v>
       </c>
       <c r="B71" s="3">
         <v>436</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>26</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>900</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>2493</v>
       </c>
       <c r="F71" s="3">
         <v>93</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="5">
         <v>1115</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71" s="5">
         <v>80</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71" s="5">
         <v>407</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="5">
+      <c r="A72" s="20">
+        <v>43926</v>
+      </c>
+      <c r="B72" s="4">
         <v>453</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <v>27</v>
       </c>
       <c r="D72">
@@ -2867,53 +2624,53 @@
       <c r="F72" s="3">
         <v>96</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="5">
         <v>1135</v>
       </c>
       <c r="H72">
         <v>82</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72" s="5">
         <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>79</v>
+      <c r="A73" s="21">
+        <v>43927</v>
       </c>
       <c r="B73" s="3">
         <v>460</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="5">
         <v>27</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>921</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>2637</v>
       </c>
       <c r="F73" s="3">
         <v>96</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="5">
         <v>1158</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H73" s="5">
         <v>85</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73" s="5">
         <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" s="5">
+      <c r="A74" s="20">
+        <v>43928</v>
+      </c>
+      <c r="B74" s="4">
         <v>470</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="5">
         <v>27</v>
       </c>
       <c r="D74">
@@ -2925,53 +2682,53 @@
       <c r="F74" s="3">
         <v>97</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="5">
         <v>1191</v>
       </c>
       <c r="H74">
         <v>88</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74" s="5">
         <v>415</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>81</v>
+      <c r="A75" s="21">
+        <v>43929</v>
       </c>
       <c r="B75" s="3">
         <v>481</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="5">
         <v>27</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>943</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>2734</v>
       </c>
       <c r="F75" s="3">
         <v>99</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="5">
         <v>1212</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H75" s="5">
         <v>97</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="5">
         <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" s="5">
+      <c r="A76" s="20">
+        <v>43930</v>
+      </c>
+      <c r="B76" s="4">
         <v>495</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="5">
         <v>27</v>
       </c>
       <c r="D76">
@@ -2983,53 +2740,53 @@
       <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="5">
         <v>1228</v>
       </c>
       <c r="H76">
         <v>106</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="5">
         <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>83</v>
+      <c r="A77" s="21">
+        <v>43931</v>
       </c>
       <c r="B77" s="3">
         <v>506</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="5">
         <v>27</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="5">
         <v>965</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>2822</v>
       </c>
       <c r="F77" s="3">
         <v>103</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="5">
         <v>1241</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="5">
         <v>111</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="5">
         <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B78" s="5">
+      <c r="A78" s="20">
+        <v>43932</v>
+      </c>
+      <c r="B78" s="4">
         <v>514</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="5">
         <v>27</v>
       </c>
       <c r="D78">
@@ -3041,111 +2798,111 @@
       <c r="F78" s="3">
         <v>103</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G78" s="5">
         <v>1265</v>
       </c>
       <c r="H78">
         <v>123</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="5">
         <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79" s="9">
+      <c r="A79" s="22">
+        <v>43933</v>
+      </c>
+      <c r="B79" s="6">
         <v>517</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="7">
         <v>27</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="7">
         <v>983</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="7">
         <v>2854</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="6">
         <v>102</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="7">
         <v>1268</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="7">
         <v>133</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I79" s="7">
         <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" s="12">
+      <c r="A80" s="23">
+        <v>43934</v>
+      </c>
+      <c r="B80" s="8">
         <v>523</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C80" s="9">
         <v>27</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="10">
         <v>987</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="10">
         <v>2863</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F80" s="11">
         <v>103</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G80" s="9">
         <v>1281</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="10">
         <v>144</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80" s="9">
         <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>87</v>
+      <c r="A81" s="21">
+        <v>43935</v>
       </c>
       <c r="B81" s="3">
         <v>527</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="5">
         <v>27</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>998</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>2870</v>
       </c>
       <c r="F81" s="3">
         <v>103</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G81" s="5">
         <v>1291</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H81" s="5">
         <v>151</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81" s="5">
         <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" s="5">
+      <c r="A82" s="20">
+        <v>43936</v>
+      </c>
+      <c r="B82" s="4">
         <v>532</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="5">
         <v>27</v>
       </c>
       <c r="D82">
@@ -3157,53 +2914,53 @@
       <c r="F82" s="3">
         <v>103</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G82" s="5">
         <v>1299</v>
       </c>
       <c r="H82">
         <v>168</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I82" s="5">
         <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>89</v>
+      <c r="A83" s="21">
+        <v>43937</v>
       </c>
       <c r="B83" s="3">
         <v>535</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="5">
         <v>27</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="5">
         <v>1001</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>2897</v>
       </c>
       <c r="F83" s="3">
         <v>103</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G83" s="5">
         <v>1301</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H83" s="5">
         <v>170</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I83" s="5">
         <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="5">
+      <c r="A84" s="20">
+        <v>43938</v>
+      </c>
+      <c r="B84" s="4">
         <v>541</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="5">
         <v>27</v>
       </c>
       <c r="D84">
@@ -3215,53 +2972,53 @@
       <c r="F84" s="3">
         <v>103</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G84" s="5">
         <v>1302</v>
       </c>
       <c r="H84">
         <v>182</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I84" s="5">
         <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>91</v>
+      <c r="A85" s="21">
+        <v>43939</v>
       </c>
       <c r="B85" s="3">
         <v>544</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="5">
         <v>27</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="5">
         <v>1014</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>2936</v>
       </c>
       <c r="F85" s="3">
         <v>103</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="5">
         <v>1319</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85" s="5">
         <v>187</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="5">
         <v>435</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="5">
+      <c r="A86" s="20">
+        <v>43940</v>
+      </c>
+      <c r="B86" s="4">
         <v>545</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="5">
         <v>27</v>
       </c>
       <c r="D86">
@@ -3273,95 +3030,95 @@
       <c r="F86" s="3">
         <v>103</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G86" s="5">
         <v>1328</v>
       </c>
       <c r="H86">
         <v>192</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I86" s="5">
         <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>93</v>
+      <c r="A87" s="21">
+        <v>43941</v>
       </c>
       <c r="B87" s="3">
         <v>545</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="5">
         <v>27</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="5">
         <v>1019</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>2963</v>
       </c>
       <c r="F87" s="3">
         <v>104</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G87" s="5">
         <v>1329</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H87" s="5">
         <v>197</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I87" s="5">
         <v>435</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="13"/>
+      <c r="A88" s="23">
+        <v>43942</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="9"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>95</v>
+      <c r="A89" s="21">
+        <v>43943</v>
       </c>
       <c r="B89" s="3">
         <v>546</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="5">
         <v>27</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="5">
         <v>1024</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>2971</v>
       </c>
       <c r="F89" s="3">
         <v>104</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89" s="5">
         <v>1336</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H89" s="5">
         <v>203</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I89" s="5">
         <v>438</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90" s="5">
+      <c r="A90" s="20">
+        <v>43944</v>
+      </c>
+      <c r="B90" s="4">
         <v>546</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="5">
         <v>27</v>
       </c>
       <c r="D90">
@@ -3373,13 +3130,13 @@
       <c r="F90" s="3">
         <v>104</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G90" s="5">
         <v>1337</v>
       </c>
       <c r="H90">
         <v>207</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I90" s="5">
         <v>438</v>
       </c>
     </row>
@@ -3390,54 +3147,83 @@
       <c r="B91" s="3">
         <v>548</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="5">
         <v>27</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="5">
         <v>1026</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <v>2982</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="5">
         <v>104</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="5">
         <v>1343</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91" s="5">
         <v>207</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I91" s="5">
         <v>438</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
+      <c r="A92" s="24">
         <v>43946</v>
       </c>
-      <c r="B92" s="18">
+      <c r="B92" s="12">
         <v>549</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C92" s="12">
         <v>27</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="12">
         <v>1026</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="12">
         <v>2994</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="12">
         <v>106</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G92" s="12">
         <v>1346</v>
       </c>
-      <c r="H92" s="18">
+      <c r="H92" s="12">
         <v>209</v>
       </c>
-      <c r="I92" s="18">
+      <c r="I92" s="12">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="17">
+        <v>43947</v>
+      </c>
+      <c r="B93">
+        <v>549</v>
+      </c>
+      <c r="C93" s="5">
+        <v>27</v>
+      </c>
+      <c r="D93">
+        <v>1030</v>
+      </c>
+      <c r="E93">
+        <v>3002</v>
+      </c>
+      <c r="F93" s="5">
+        <v>106</v>
+      </c>
+      <c r="G93" s="5">
+        <v>1349</v>
+      </c>
+      <c r="H93" s="5">
+        <v>210</v>
+      </c>
+      <c r="I93" s="5">
         <v>438</v>
       </c>
     </row>
@@ -3448,40 +3234,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D67BDE-8C6C-4933-9891-98BCB20D44FE}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="A1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3489,33 +3278,33 @@
       <c r="A2" s="16">
         <v>43891</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="17">
         <v>43892</v>
       </c>
       <c r="B3">
@@ -3547,33 +3336,33 @@
       <c r="A4" s="16">
         <v>43893</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="17">
         <v>43894</v>
       </c>
       <c r="B5">
@@ -3605,33 +3394,33 @@
       <c r="A6" s="16">
         <v>43895</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="17">
         <v>43896</v>
       </c>
       <c r="B7">
@@ -3663,33 +3452,33 @@
       <c r="A8" s="16">
         <v>43897</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="17">
         <v>43898</v>
       </c>
       <c r="B9">
@@ -3721,33 +3510,33 @@
       <c r="A10" s="16">
         <v>43899</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="17">
         <v>43900</v>
       </c>
       <c r="B11">
@@ -3779,33 +3568,33 @@
       <c r="A12" s="16">
         <v>43901</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="17">
         <v>43902</v>
       </c>
       <c r="B13">
@@ -3837,33 +3626,33 @@
       <c r="A14" s="16">
         <v>43903</v>
       </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="17">
         <v>43904</v>
       </c>
       <c r="B15">
@@ -3895,33 +3684,33 @@
       <c r="A16" s="16">
         <v>43905</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="17">
         <v>43906</v>
       </c>
       <c r="B17">
@@ -3953,33 +3742,33 @@
       <c r="A18" s="16">
         <v>43907</v>
       </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="17">
         <v>43908</v>
       </c>
       <c r="B19">
@@ -4011,33 +3800,33 @@
       <c r="A20" s="16">
         <v>43909</v>
       </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
         <v>5</v>
       </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="17">
         <v>43910</v>
       </c>
       <c r="B21">
@@ -4069,33 +3858,33 @@
       <c r="A22" s="16">
         <v>43911</v>
       </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
         <v>6</v>
       </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="17">
         <v>43912</v>
       </c>
       <c r="B23">
@@ -4127,33 +3916,33 @@
       <c r="A24" s="16">
         <v>43913</v>
       </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
         <v>6</v>
       </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="17">
         <v>43914</v>
       </c>
       <c r="B25">
@@ -4185,33 +3974,33 @@
       <c r="A26" s="16">
         <v>43915</v>
       </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
         <v>7</v>
       </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="17">
         <v>43916</v>
       </c>
       <c r="B27">
@@ -4243,33 +4032,33 @@
       <c r="A28" s="16">
         <v>43917</v>
       </c>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
         <v>7</v>
       </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
         <v>3</v>
       </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="17">
         <v>43918</v>
       </c>
       <c r="B29">
@@ -4301,33 +4090,33 @@
       <c r="A30" s="16">
         <v>43919</v>
       </c>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>2</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="B30" s="5">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5">
         <v>8</v>
       </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>4</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>4</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="17">
         <v>43920</v>
       </c>
       <c r="B31">
@@ -4359,33 +4148,33 @@
       <c r="A32" s="16">
         <v>43921</v>
       </c>
-      <c r="B32" s="6">
-        <v>2</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>2</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5">
         <v>8</v>
       </c>
-      <c r="F32" s="6">
-        <v>1</v>
-      </c>
-      <c r="G32" s="6">
-        <v>4</v>
-      </c>
-      <c r="H32" s="6">
-        <v>1</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>4</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="17">
         <v>43922</v>
       </c>
       <c r="B33">
@@ -4417,33 +4206,33 @@
       <c r="A34" s="16">
         <v>43923</v>
       </c>
-      <c r="B34" s="6">
-        <v>2</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6">
-        <v>4</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="B34" s="5">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4</v>
+      </c>
+      <c r="E34" s="5">
         <v>10</v>
       </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
         <v>5</v>
       </c>
-      <c r="H34" s="6">
-        <v>2</v>
-      </c>
-      <c r="I34" s="6">
+      <c r="H34" s="5">
+        <v>2</v>
+      </c>
+      <c r="I34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="17">
         <v>43924</v>
       </c>
       <c r="B35">
@@ -4475,33 +4264,33 @@
       <c r="A36" s="16">
         <v>43925</v>
       </c>
-      <c r="B36" s="6">
-        <v>2</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
-        <v>4</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4</v>
+      </c>
+      <c r="E36" s="5">
         <v>12</v>
       </c>
-      <c r="F36" s="6">
-        <v>2</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="F36" s="5">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5">
         <v>8</v>
       </c>
-      <c r="H36" s="6">
-        <v>2</v>
-      </c>
-      <c r="I36" s="6">
+      <c r="H36" s="5">
+        <v>2</v>
+      </c>
+      <c r="I36" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="17">
         <v>43926</v>
       </c>
       <c r="B37">
@@ -4533,33 +4322,33 @@
       <c r="A38" s="16">
         <v>43927</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>3</v>
       </c>
-      <c r="C38" s="6">
-        <v>0</v>
-      </c>
-      <c r="D38" s="6">
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
         <v>5</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>17</v>
       </c>
-      <c r="F38" s="6">
-        <v>2</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="F38" s="5">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5">
         <v>10</v>
       </c>
-      <c r="H38" s="6">
-        <v>2</v>
-      </c>
-      <c r="I38" s="6">
+      <c r="H38" s="5">
+        <v>2</v>
+      </c>
+      <c r="I38" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="A39" s="17">
         <v>43928</v>
       </c>
       <c r="B39">
@@ -4591,33 +4380,33 @@
       <c r="A40" s="16">
         <v>43929</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>6</v>
       </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6">
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
         <v>5</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>20</v>
       </c>
-      <c r="F40" s="6">
-        <v>2</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="F40" s="5">
+        <v>2</v>
+      </c>
+      <c r="G40" s="5">
         <v>12</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <v>3</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+      <c r="A41" s="17">
         <v>43930</v>
       </c>
       <c r="B41">
@@ -4649,33 +4438,33 @@
       <c r="A42" s="16">
         <v>43931</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>6</v>
       </c>
-      <c r="C42" s="6">
-        <v>0</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
         <v>5</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>21</v>
       </c>
-      <c r="F42" s="6">
-        <v>2</v>
-      </c>
-      <c r="G42" s="6">
+      <c r="F42" s="5">
+        <v>2</v>
+      </c>
+      <c r="G42" s="5">
         <v>13</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <v>3</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="17">
         <v>43932</v>
       </c>
       <c r="B43">
@@ -4707,57 +4496,57 @@
       <c r="A44" s="16">
         <v>43933</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>6</v>
       </c>
-      <c r="C44" s="6">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
         <v>5</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>23</v>
       </c>
-      <c r="F44" s="6">
-        <v>2</v>
-      </c>
-      <c r="G44" s="6">
+      <c r="F44" s="5">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5">
         <v>14</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <v>5</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
+      <c r="A45" s="18">
         <v>43934</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="14">
         <v>6</v>
       </c>
-      <c r="C45" s="22">
-        <v>0</v>
-      </c>
-      <c r="D45" s="22">
+      <c r="C45" s="14">
+        <v>0</v>
+      </c>
+      <c r="D45" s="14">
         <v>5</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="14">
         <v>25</v>
       </c>
-      <c r="F45" s="22">
-        <v>2</v>
-      </c>
-      <c r="G45" s="22">
+      <c r="F45" s="14">
+        <v>2</v>
+      </c>
+      <c r="G45" s="14">
         <v>14</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="14">
         <v>5</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="14">
         <v>4</v>
       </c>
     </row>
@@ -4765,33 +4554,33 @@
       <c r="A46" s="16">
         <v>43935</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>6</v>
       </c>
-      <c r="C46" s="6">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6">
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
         <v>5</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>25</v>
       </c>
-      <c r="F46" s="6">
-        <v>2</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="F46" s="5">
+        <v>2</v>
+      </c>
+      <c r="G46" s="5">
         <v>14</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <v>5</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+      <c r="A47" s="17">
         <v>43936</v>
       </c>
       <c r="B47">
@@ -4823,33 +4612,33 @@
       <c r="A48" s="16">
         <v>43937</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>6</v>
       </c>
-      <c r="C48" s="6">
-        <v>0</v>
-      </c>
-      <c r="D48" s="6">
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
         <v>5</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>25</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>3</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>14</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>6</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="A49" s="17">
         <v>43938</v>
       </c>
       <c r="B49">
@@ -4881,33 +4670,33 @@
       <c r="A50" s="16">
         <v>43939</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>7</v>
       </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6">
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
         <v>6</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>26</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>3</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>14</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <v>8</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
+      <c r="A51" s="17">
         <v>43940</v>
       </c>
       <c r="B51">
@@ -4939,28 +4728,193 @@
       <c r="A52" s="16">
         <v>43941</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>7</v>
       </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
         <v>6</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>28</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52">
         <v>3</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>15</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>8</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>43942</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>43943</v>
+      </c>
+      <c r="B54" s="5">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54" s="5">
+        <v>31</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5">
+        <v>15</v>
+      </c>
+      <c r="H54" s="5">
+        <v>8</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>43944</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>31</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>16</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>43945</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>32</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>16</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>43946</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>33</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>16</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>43947</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>34</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>17</v>
+      </c>
+      <c r="H58">
+        <v>11</v>
+      </c>
+      <c r="I58">
         <v>4</v>
       </c>
     </row>
@@ -4971,46 +4925,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA51B555-B3A3-4955-8B73-141C9696E5DB}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>79</v>
+      <c r="A2" s="17">
+        <v>43927</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -5038,8 +4995,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>80</v>
+      <c r="A3" s="17">
+        <v>43928</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -5067,8 +5024,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>81</v>
+      <c r="A4" s="17">
+        <v>43929</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5096,8 +5053,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>82</v>
+      <c r="A5" s="17">
+        <v>43930</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -5125,8 +5082,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>83</v>
+      <c r="A6" s="17">
+        <v>43931</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -5154,8 +5111,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>84</v>
+      <c r="A7" s="17">
+        <v>43932</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -5183,8 +5140,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>85</v>
+      <c r="A8" s="17">
+        <v>43933</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -5212,37 +5169,37 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="22">
-        <v>2</v>
-      </c>
-      <c r="C9" s="22">
+      <c r="A9" s="17">
+        <v>43934</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14">
         <v>30</v>
       </c>
-      <c r="D9" s="22">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
         <v>11</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="14">
         <v>6</v>
       </c>
-      <c r="G9" s="22">
-        <v>2</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="G9" s="14">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14">
         <v>14</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="14">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>87</v>
+      <c r="A10" s="17">
+        <v>43935</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -5270,8 +5227,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>88</v>
+      <c r="A11" s="17">
+        <v>43936</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5296,8 +5253,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>89</v>
+      <c r="A12" s="17">
+        <v>43937</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5325,8 +5282,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>90</v>
+      <c r="A13" s="17">
+        <v>43938</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5354,8 +5311,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>91</v>
+      <c r="A14" s="17">
+        <v>43939</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -5383,8 +5340,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>92</v>
+      <c r="A15" s="17">
+        <v>43940</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5412,8 +5369,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>93</v>
+      <c r="A16" s="17">
+        <v>43941</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -5441,21 +5398,21 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="A17" s="17">
+        <v>43942</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>95</v>
+      <c r="A18" s="17">
+        <v>43943</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5483,8 +5440,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>96</v>
+      <c r="A19" s="17">
+        <v>43944</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5512,7 +5469,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="17">
         <v>43945</v>
       </c>
       <c r="B20">
@@ -5566,6 +5523,35 @@
         <v>11</v>
       </c>
       <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>43947</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22">
         <v>4</v>
       </c>
     </row>
@@ -5576,46 +5562,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD38594D-FF79-4203-B72E-BCECF77BCF6D}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD77"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>79</v>
+      <c r="A2" s="17">
+        <v>43927</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -5643,8 +5632,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>80</v>
+      <c r="A3" s="17">
+        <v>43928</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -5672,8 +5661,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>81</v>
+      <c r="A4" s="17">
+        <v>43929</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -5701,8 +5690,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>82</v>
+      <c r="A5" s="17">
+        <v>43930</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -5730,8 +5719,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>83</v>
+      <c r="A6" s="17">
+        <v>43931</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -5759,8 +5748,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>84</v>
+      <c r="A7" s="17">
+        <v>43932</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -5788,8 +5777,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>85</v>
+      <c r="A8" s="17">
+        <v>43933</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5817,37 +5806,37 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="A9" s="17">
+        <v>43934</v>
+      </c>
+      <c r="B9" s="14">
         <v>3</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="14">
         <v>77</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="14">
         <v>22</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="14">
         <v>23</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="14">
         <v>13</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="14">
         <v>11</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="14">
         <v>40</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="14">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>87</v>
+      <c r="A10" s="17">
+        <v>43935</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -5875,8 +5864,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>88</v>
+      <c r="A11" s="17">
+        <v>43936</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -5904,8 +5893,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>89</v>
+      <c r="A12" s="17">
+        <v>43937</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -5933,8 +5922,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>90</v>
+      <c r="A13" s="17">
+        <v>43938</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -5962,8 +5951,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>91</v>
+      <c r="A14" s="17">
+        <v>43939</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5991,8 +5980,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>92</v>
+      <c r="A15" s="17">
+        <v>43940</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6020,8 +6009,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>93</v>
+      <c r="A16" s="17">
+        <v>43941</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -6049,21 +6038,21 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="A17" s="17">
+        <v>43942</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>95</v>
+      <c r="A18" s="17">
+        <v>43943</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -6091,8 +6080,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>96</v>
+      <c r="A19" s="17">
+        <v>43944</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6120,7 +6109,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="17">
         <v>43945</v>
       </c>
       <c r="B20">
@@ -6174,6 +6163,35 @@
         <v>24</v>
       </c>
       <c r="I21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>43947</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>24</v>
+      </c>
+      <c r="I22">
         <v>24</v>
       </c>
     </row>
@@ -6184,766 +6202,1057 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D896C362-7881-47FF-95DF-EEEC7D523D5C}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="32">
+        <v>43895</v>
+      </c>
+      <c r="I2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>43896</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>43897</v>
+      </c>
+      <c r="I4">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>43898</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>43899</v>
+      </c>
+      <c r="I6">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>43900</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>43901</v>
+      </c>
+      <c r="I8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>43902</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>43903</v>
+      </c>
+      <c r="I10">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>43904</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>43905</v>
+      </c>
+      <c r="I12">
+        <v>5442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>43906</v>
+      </c>
+      <c r="I13" s="5">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>43907</v>
+      </c>
+      <c r="I14">
+        <v>6613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>43908</v>
+      </c>
+      <c r="I15" s="5">
+        <v>7074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>43909</v>
+      </c>
+      <c r="I16">
+        <v>8008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>43910</v>
+      </c>
+      <c r="I17" s="5">
+        <v>8603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>43911</v>
+      </c>
+      <c r="I18">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>43912</v>
+      </c>
+      <c r="I19" s="5">
+        <v>9618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>43913</v>
+      </c>
+      <c r="I20">
+        <v>10088</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>43914</v>
+      </c>
+      <c r="I21" s="5">
+        <v>10528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>43915</v>
+      </c>
+      <c r="I22">
+        <v>10988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>43916</v>
+      </c>
+      <c r="I23" s="5">
+        <v>11519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>43917</v>
+      </c>
+      <c r="I24">
+        <v>12091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>43918</v>
+      </c>
+      <c r="I25" s="5">
+        <v>12971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>43919</v>
+      </c>
+      <c r="I26">
+        <v>13648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>43920</v>
+      </c>
+      <c r="I27" s="5">
+        <v>14188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>43921</v>
+      </c>
+      <c r="I28">
+        <v>14704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>43922</v>
+      </c>
+      <c r="I29" s="5">
+        <v>15522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>43923</v>
+      </c>
+      <c r="I30">
+        <v>16190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>43924</v>
+      </c>
+      <c r="I31" s="5">
+        <v>16444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>43925</v>
+      </c>
+      <c r="I32">
+        <v>17251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>43926</v>
+      </c>
+      <c r="I33" s="5">
+        <v>18197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>43927</v>
+      </c>
+      <c r="B34">
         <v>5329</v>
       </c>
-      <c r="C2">
+      <c r="C34">
         <v>124038</v>
       </c>
-      <c r="D2">
+      <c r="D34">
         <v>2805</v>
       </c>
-      <c r="E2">
+      <c r="E34">
         <v>58490</v>
       </c>
-      <c r="F2">
+      <c r="F34">
         <v>33303</v>
       </c>
-      <c r="G2">
+      <c r="G34">
         <v>2972</v>
       </c>
-      <c r="H2">
+      <c r="H34">
         <v>57000</v>
       </c>
-      <c r="I2">
+      <c r="I34">
         <v>18726</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>43928</v>
+      </c>
+      <c r="B35">
         <v>5497</v>
       </c>
-      <c r="C3">
+      <c r="C35">
         <v>126146</v>
       </c>
-      <c r="D3">
+      <c r="D35">
         <v>2999</v>
       </c>
-      <c r="E3">
+      <c r="E35">
         <v>61834</v>
       </c>
-      <c r="F3">
+      <c r="F35">
         <v>33831</v>
       </c>
-      <c r="G3">
+      <c r="G35">
         <v>3192</v>
       </c>
-      <c r="H3">
+      <c r="H35">
         <v>58000</v>
       </c>
-      <c r="I3">
+      <c r="I35">
         <v>19201</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>43929</v>
+      </c>
+      <c r="B36">
         <v>5679</v>
       </c>
-      <c r="C4">
+      <c r="C36">
         <v>129091</v>
       </c>
-      <c r="D4">
+      <c r="D36">
         <v>3062</v>
       </c>
-      <c r="E4">
+      <c r="E36">
         <v>63552</v>
       </c>
-      <c r="F4">
+      <c r="F36">
         <v>34593</v>
       </c>
-      <c r="G4">
+      <c r="G36">
         <v>3295</v>
       </c>
-      <c r="H4">
+      <c r="H36">
         <v>60000</v>
       </c>
-      <c r="I4">
+      <c r="I36">
         <v>20096</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <v>43930</v>
+      </c>
+      <c r="B37">
         <v>5802</v>
       </c>
-      <c r="C5">
+      <c r="C37">
         <v>132997</v>
       </c>
-      <c r="D5">
+      <c r="D37">
         <v>3174</v>
       </c>
-      <c r="E5">
+      <c r="E37">
         <v>66766</v>
       </c>
-      <c r="F5">
+      <c r="F37">
         <v>35286</v>
       </c>
-      <c r="G5">
+      <c r="G37">
         <v>3397</v>
       </c>
-      <c r="H5">
+      <c r="H37">
         <v>62000</v>
       </c>
-      <c r="I5">
+      <c r="I37">
         <v>20712</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <v>43931</v>
+      </c>
+      <c r="B38">
         <v>6017</v>
       </c>
-      <c r="C6">
+      <c r="C38">
         <v>137441</v>
       </c>
-      <c r="D6">
+      <c r="D38">
         <v>3243</v>
       </c>
-      <c r="E6">
+      <c r="E38">
         <v>69194</v>
       </c>
-      <c r="F6">
+      <c r="F38">
         <v>35716</v>
       </c>
-      <c r="G6">
+      <c r="G38">
         <v>3591</v>
       </c>
-      <c r="H6">
+      <c r="H38">
         <v>62000</v>
       </c>
-      <c r="I6">
+      <c r="I38">
         <v>21144</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>43932</v>
+      </c>
+      <c r="B39">
         <v>6103</v>
       </c>
-      <c r="C7">
+      <c r="C39">
         <v>138090</v>
       </c>
-      <c r="D7">
+      <c r="D39">
         <v>3300</v>
       </c>
-      <c r="E7">
+      <c r="E39">
         <v>71499</v>
       </c>
-      <c r="F7">
+      <c r="F39">
         <v>36159</v>
       </c>
-      <c r="G7">
+      <c r="G39">
         <v>3591</v>
       </c>
-      <c r="H7">
+      <c r="H39">
         <v>67000</v>
       </c>
-      <c r="I7">
+      <c r="I39">
         <v>22105</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="29">
+        <v>43933</v>
+      </c>
+      <c r="B40">
         <v>6159</v>
       </c>
-      <c r="C8">
+      <c r="C40">
         <v>141777</v>
       </c>
-      <c r="D8">
+      <c r="D40">
         <v>3355</v>
       </c>
-      <c r="E8">
+      <c r="E40">
         <v>72313</v>
       </c>
-      <c r="F8">
+      <c r="F40">
         <v>36449</v>
       </c>
-      <c r="G8">
+      <c r="G40">
         <v>3770</v>
       </c>
-      <c r="H8">
+      <c r="H40">
         <v>67000</v>
       </c>
-      <c r="I8">
+      <c r="I40">
         <v>23118</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="22">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>43934</v>
+      </c>
+      <c r="B41" s="14">
         <v>6191</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C41" s="14">
         <v>144380</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D41" s="14">
         <v>3381</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E41" s="14">
         <v>73170</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F41" s="14">
         <v>36704</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G41" s="14">
         <v>4375</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H41" s="14">
         <v>70000</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I41" s="14">
         <v>23935</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="28">
+        <v>43935</v>
+      </c>
+      <c r="B42">
         <v>6291</v>
       </c>
-      <c r="C10">
+      <c r="C42">
         <v>145809</v>
       </c>
-      <c r="D10">
+      <c r="D42">
         <v>3442</v>
       </c>
-      <c r="E10">
+      <c r="E42">
         <v>74013</v>
       </c>
-      <c r="F10">
+      <c r="F42">
         <v>37039</v>
       </c>
-      <c r="G10">
+      <c r="G42">
         <v>4502</v>
       </c>
-      <c r="H10">
+      <c r="H42">
         <v>71000</v>
       </c>
-      <c r="I10">
+      <c r="I42">
         <v>24397</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
+        <v>43936</v>
+      </c>
+      <c r="B43">
         <v>6490</v>
       </c>
-      <c r="C11">
+      <c r="C43">
         <v>147114</v>
       </c>
-      <c r="D11">
+      <c r="D43">
         <v>3489</v>
       </c>
-      <c r="E11">
+      <c r="E43">
         <v>75480</v>
       </c>
-      <c r="F11">
+      <c r="F43">
         <v>37545</v>
       </c>
-      <c r="G11">
+      <c r="G43">
         <v>4646</v>
       </c>
-      <c r="H11">
+      <c r="H43">
         <v>72000</v>
       </c>
-      <c r="I11">
+      <c r="I43">
         <v>24613</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>43937</v>
+      </c>
+      <c r="B44">
         <v>6619</v>
       </c>
-      <c r="C12">
+      <c r="C44">
         <v>150314</v>
       </c>
-      <c r="D12">
+      <c r="D44">
         <v>3521</v>
       </c>
-      <c r="E12">
+      <c r="E44">
         <v>77727</v>
       </c>
-      <c r="F12">
+      <c r="F44">
         <v>38389</v>
       </c>
-      <c r="G12">
+      <c r="G44">
         <v>4810</v>
       </c>
-      <c r="H12">
+      <c r="H44">
         <v>73000</v>
       </c>
-      <c r="I12">
+      <c r="I44">
         <v>25653</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <v>43938</v>
+      </c>
+      <c r="B45">
         <v>6754</v>
       </c>
-      <c r="C13">
+      <c r="C45">
         <v>155302</v>
       </c>
-      <c r="D13">
+      <c r="D45">
         <v>3606</v>
       </c>
-      <c r="E13">
+      <c r="E45">
         <v>80227</v>
       </c>
-      <c r="F13">
+      <c r="F45">
         <v>39318</v>
       </c>
-      <c r="G13">
+      <c r="G45">
         <v>5098</v>
       </c>
-      <c r="H13">
+      <c r="H45">
         <v>75000</v>
       </c>
-      <c r="I13">
+      <c r="I45">
         <v>26225</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="28">
+        <v>43939</v>
+      </c>
+      <c r="B46">
         <v>6856</v>
       </c>
-      <c r="C14">
+      <c r="C46">
         <v>160454</v>
       </c>
-      <c r="D14">
+      <c r="D46">
         <v>3625</v>
       </c>
-      <c r="E14">
+      <c r="E46">
         <v>82763</v>
       </c>
-      <c r="F14">
+      <c r="F46">
         <v>41261</v>
       </c>
-      <c r="G14">
+      <c r="G46">
         <v>5376</v>
       </c>
-      <c r="H14">
+      <c r="H46">
         <v>79000</v>
       </c>
-      <c r="I14">
+      <c r="I46">
         <v>27175</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <v>43940</v>
+      </c>
+      <c r="B47">
         <v>6893</v>
       </c>
-      <c r="C15">
+      <c r="C47">
         <v>165137</v>
       </c>
-      <c r="D15">
+      <c r="D47">
         <v>3713</v>
       </c>
-      <c r="E15">
+      <c r="E47">
         <v>84735</v>
       </c>
-      <c r="F15">
+      <c r="F47">
         <v>43310</v>
       </c>
-      <c r="G15">
+      <c r="G47">
         <v>6320</v>
       </c>
-      <c r="H15">
+      <c r="H47">
         <v>82000</v>
       </c>
-      <c r="I15">
+      <c r="I47">
         <v>28888</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="28">
+        <v>43941</v>
+      </c>
+      <c r="B48">
         <v>7063</v>
       </c>
-      <c r="C16">
+      <c r="C48">
         <v>168626</v>
       </c>
-      <c r="D16">
+      <c r="D48">
         <v>3731</v>
       </c>
-      <c r="E16">
+      <c r="E48">
         <v>85870</v>
       </c>
-      <c r="F16">
+      <c r="F48">
         <v>44278</v>
       </c>
-      <c r="G16">
+      <c r="G48">
         <v>6697</v>
       </c>
-      <c r="H16">
+      <c r="H48">
         <v>86000</v>
       </c>
-      <c r="I16">
+      <c r="I48">
         <v>29469</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="25">
+        <v>43942.96597222222</v>
+      </c>
+      <c r="I49" s="5">
+        <v>30112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>43943</v>
+      </c>
+      <c r="B50">
         <v>7256</v>
       </c>
-      <c r="C18">
+      <c r="C50">
         <v>175419</v>
       </c>
-      <c r="D18">
+      <c r="D50">
         <v>3972</v>
       </c>
-      <c r="E18">
+      <c r="E50">
         <v>90168</v>
       </c>
-      <c r="F18">
+      <c r="F50">
         <v>47238</v>
       </c>
-      <c r="G18">
+      <c r="G50">
         <v>7248</v>
       </c>
-      <c r="H18">
+      <c r="H50">
         <v>90000</v>
       </c>
-      <c r="I18">
+      <c r="I50">
         <v>31140</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="27">
+        <v>43944</v>
+      </c>
+      <c r="B51">
         <v>7367</v>
       </c>
-      <c r="C19">
+      <c r="C51">
         <v>181064</v>
       </c>
-      <c r="D19">
+      <c r="D51">
         <v>4045</v>
       </c>
-      <c r="E19">
+      <c r="E51">
         <v>92699</v>
       </c>
-      <c r="F19">
+      <c r="F51">
         <v>48727</v>
       </c>
-      <c r="G19">
+      <c r="G51">
         <v>7607</v>
       </c>
-      <c r="H19">
+      <c r="H51">
         <v>93000</v>
       </c>
-      <c r="I19">
+      <c r="I51">
         <v>32150</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
         <v>43945</v>
       </c>
-      <c r="B20">
+      <c r="B52">
         <v>7440</v>
       </c>
-      <c r="C20">
+      <c r="C52">
         <v>188416</v>
       </c>
-      <c r="D20">
+      <c r="D52">
         <v>4120</v>
       </c>
-      <c r="E20">
+      <c r="E52">
         <v>94977</v>
       </c>
-      <c r="F20">
+      <c r="F52">
         <v>50396</v>
       </c>
-      <c r="G20">
+      <c r="G52">
         <v>7883</v>
       </c>
-      <c r="H20">
+      <c r="H52">
         <v>96000</v>
       </c>
-      <c r="I20">
+      <c r="I52">
         <v>33138</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="31">
         <v>43946</v>
       </c>
-      <c r="B21">
+      <c r="B53">
         <v>7738</v>
       </c>
-      <c r="C21">
+      <c r="C53">
         <v>193256</v>
       </c>
-      <c r="D21">
+      <c r="D53">
         <v>4189</v>
       </c>
-      <c r="E21">
+      <c r="E53">
         <v>97057</v>
       </c>
-      <c r="F21">
+      <c r="F53">
         <v>51536</v>
       </c>
-      <c r="G21">
+      <c r="G53">
         <v>8282</v>
       </c>
-      <c r="H21">
+      <c r="H53">
         <v>98000</v>
       </c>
-      <c r="I21">
+      <c r="I53">
         <v>34199</v>
       </c>
     </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="31">
+        <v>43947</v>
+      </c>
+      <c r="B54">
+        <v>7886</v>
+      </c>
+      <c r="C54">
+        <v>198715</v>
+      </c>
+      <c r="D54">
+        <v>4231</v>
+      </c>
+      <c r="E54">
+        <v>98422</v>
+      </c>
+      <c r="F54">
+        <v>52671</v>
+      </c>
+      <c r="G54">
+        <v>719</v>
+      </c>
+      <c r="H54">
+        <v>101000</v>
+      </c>
+      <c r="I54" s="34">
+        <v>34085</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I54" xr:uid="{D002F752-45D9-46AE-A880-0E3D8F67C26F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I54">
+      <sortCondition ref="A1:A54"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I54">
+    <sortCondition ref="A2:A54"/>
+  </sortState>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E8EB67-DF53-4BFE-828C-11AACA6BD512}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>99</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>80</v>
+      <c r="A2" s="20">
+        <v>43928</v>
       </c>
       <c r="B2">
         <v>2547</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>81</v>
+      <c r="A3" s="21">
+        <v>43929</v>
       </c>
       <c r="B3">
         <v>2813</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>82</v>
+      <c r="A4" s="20">
+        <v>43930</v>
       </c>
       <c r="B4">
         <v>2987</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>83</v>
+      <c r="A5" s="21">
+        <v>43931</v>
       </c>
       <c r="B5">
         <v>3141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>84</v>
+      <c r="A6" s="20">
+        <v>43932</v>
       </c>
       <c r="B6">
         <v>3265</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>85</v>
+      <c r="A7" s="22">
+        <v>43933</v>
       </c>
       <c r="B7">
         <v>3338</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>86</v>
+      <c r="A8" s="23">
+        <v>43934</v>
       </c>
       <c r="B8">
         <v>3494</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>87</v>
+      <c r="A9" s="21">
+        <v>43935</v>
       </c>
       <c r="B9">
         <v>3598</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>88</v>
+      <c r="A10" s="20">
+        <v>43936</v>
       </c>
       <c r="B10">
         <v>3686</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>89</v>
+      <c r="A11" s="21">
+        <v>43937</v>
       </c>
       <c r="B11">
         <v>3747</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>90</v>
+      <c r="A12" s="20">
+        <v>43938</v>
       </c>
       <c r="B12">
         <v>3819</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>91</v>
+      <c r="A13" s="21">
+        <v>43939</v>
       </c>
       <c r="B13">
         <v>4163</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>92</v>
+      <c r="A14" s="20">
+        <v>43940</v>
       </c>
       <c r="B14">
         <v>4230</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>93</v>
+      <c r="A15" s="21">
+        <v>43941</v>
       </c>
       <c r="B15">
         <v>4258</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="14"/>
+      <c r="A16" s="23">
+        <v>43942</v>
+      </c>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
+      <c r="A17" s="21">
+        <v>43943</v>
       </c>
       <c r="B17">
         <v>4761</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>96</v>
+      <c r="A18" s="20">
+        <v>43944</v>
       </c>
       <c r="B18">
         <v>5045</v>
@@ -6958,11 +7267,19 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="24">
         <v>43946</v>
       </c>
       <c r="B20">
         <v>5372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>43947</v>
+      </c>
+      <c r="B21">
+        <v>5539</v>
       </c>
     </row>
   </sheetData>
@@ -7231,17 +7548,6 @@
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ACB5E5-EA78-445E-AF0B-D2F795099BC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1a19e586-4943-444c-8625-f12c96083822"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="05c2fe6a-1ce7-4472-bef7-81bb27a79539"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>